--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_TienLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_TienLong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -250,6 +250,33 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NCFW, NG</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15353</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
   </si>
 </sst>
 </file>
@@ -701,30 +728,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -742,6 +745,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1085,39 +1112,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1162,58 +1189,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1238,23 +1265,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1280,7 +1307,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1311,7 +1338,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1340,7 +1367,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1369,7 +1396,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1398,7 +1425,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1427,7 +1454,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1456,7 +1483,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1487,7 +1514,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1516,7 +1543,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1545,7 +1572,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1574,7 +1601,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3290,6 +3317,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3301,13 +3335,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3351,39 +3378,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3428,58 +3455,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3504,23 +3531,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3546,7 +3573,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3577,7 +3604,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3606,7 +3633,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3635,7 +3662,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3664,7 +3691,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3693,7 +3720,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3722,7 +3749,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3753,7 +3780,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3782,7 +3809,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3811,7 +3838,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3840,7 +3867,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5556,13 +5583,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5574,6 +5594,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5617,39 +5644,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5694,58 +5721,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5770,23 +5797,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5812,7 +5839,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5843,7 +5870,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5872,7 +5899,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5901,7 +5928,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5930,7 +5957,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5959,7 +5986,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5988,7 +6015,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6019,7 +6046,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6048,7 +6075,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6077,7 +6104,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6106,7 +6133,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7822,13 +7849,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7840,6 +7860,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7883,39 +7910,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7960,58 +7987,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8036,23 +8063,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8078,7 +8105,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8109,7 +8136,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8138,7 +8165,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8167,7 +8194,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8196,7 +8223,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8225,7 +8252,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8254,7 +8281,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8285,7 +8312,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8314,7 +8341,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8343,7 +8370,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8372,7 +8399,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10088,13 +10115,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10106,6 +10126,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10149,39 +10176,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10226,58 +10253,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10302,23 +10329,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10344,7 +10371,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10375,7 +10402,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10404,7 +10431,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10433,7 +10460,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10462,7 +10489,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10491,7 +10518,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10520,7 +10547,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10551,7 +10578,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10580,7 +10607,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10609,7 +10636,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10638,7 +10665,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12354,13 +12381,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12372,6 +12392,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12382,8 +12409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12415,41 +12442,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12494,58 +12521,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12570,23 +12597,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12596,7 +12623,9 @@
       <c r="B6" s="61">
         <v>44818</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44820</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -12608,19 +12637,37 @@
         <v>65</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="I6" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>67</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>71</v>
+      </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12651,7 +12698,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12680,7 +12727,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12709,7 +12756,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12738,7 +12785,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12767,7 +12814,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12796,7 +12843,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12827,7 +12874,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12856,7 +12903,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12885,7 +12932,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12914,7 +12961,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13096,7 +13143,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13309,7 +13356,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -13501,7 +13548,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13565,7 +13612,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14630,13 +14677,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14648,6 +14688,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14658,7 +14705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
@@ -14691,41 +14738,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14770,58 +14817,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14846,23 +14893,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14896,7 +14943,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14935,7 +14982,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14972,7 +15019,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15001,7 +15048,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15030,7 +15077,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15059,7 +15106,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15088,7 +15135,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15119,7 +15166,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15148,7 +15195,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15177,7 +15224,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15206,7 +15253,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16922,13 +16969,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16940,6 +16980,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16983,39 +17030,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17060,58 +17107,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17136,23 +17183,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17178,7 +17225,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17209,7 +17256,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17238,7 +17285,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17267,7 +17314,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17296,7 +17343,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17325,7 +17372,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17354,7 +17401,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17385,7 +17432,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17414,7 +17461,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17443,7 +17490,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17472,7 +17519,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19188,13 +19235,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19206,6 +19246,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19249,39 +19296,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19326,58 +19373,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19402,23 +19449,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19444,7 +19491,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19475,7 +19522,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19504,7 +19551,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19533,7 +19580,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19562,7 +19609,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19591,7 +19638,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19620,7 +19667,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19651,7 +19698,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19680,7 +19727,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19709,7 +19756,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19738,7 +19785,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20969,6 +21016,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20980,13 +21034,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_TienLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_TienLong.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -252,9 +252,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>Thiết bị lỗi nguồn</t>
-  </si>
-  <si>
     <t>Xử lý phần cứng, nâng cấp FW</t>
   </si>
   <si>
@@ -270,13 +267,43 @@
     <t>NCFW, NG</t>
   </si>
   <si>
-    <t>LE.2.00.---28.200624</t>
-  </si>
-  <si>
     <t>125.212.203.114,15353</t>
   </si>
   <si>
     <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15959</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>201912261019950</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Thiết bị HHDV</t>
+  </si>
+  <si>
+    <t>Khách không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GPS</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi phần cứng</t>
   </si>
 </sst>
 </file>
@@ -728,6 +755,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,30 +796,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,39 +1139,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1189,58 +1216,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1265,23 +1292,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1307,7 +1334,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1338,7 +1365,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1367,7 +1394,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1423,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1425,7 +1452,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +1481,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1510,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1514,7 +1541,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1543,7 +1570,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1572,7 +1599,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1601,7 +1628,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3317,13 +3344,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3335,6 +3355,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3378,39 +3405,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3455,58 +3482,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3531,23 +3558,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3573,7 +3600,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3604,7 +3631,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3633,7 +3660,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3689,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3691,7 +3718,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3720,7 +3747,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3749,7 +3776,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3780,7 +3807,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3809,7 +3836,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3838,7 +3865,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3867,7 +3894,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5583,6 +5610,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5594,13 +5628,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5644,39 +5671,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5721,58 +5748,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5797,23 +5824,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,7 +5866,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5870,7 +5897,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5899,7 +5926,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5928,7 +5955,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5957,7 +5984,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5986,7 +6013,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6015,7 +6042,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6046,7 +6073,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6075,7 +6102,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6104,7 +6131,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6133,7 +6160,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7849,6 +7876,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7860,13 +7894,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7910,39 +7937,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7987,58 +8014,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8063,23 +8090,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8105,7 +8132,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8136,7 +8163,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8165,7 +8192,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8194,7 +8221,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8223,7 +8250,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8252,7 +8279,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8281,7 +8308,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8312,7 +8339,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8341,7 +8368,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8370,7 +8397,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8399,7 +8426,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10115,6 +10142,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10126,13 +10160,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10176,39 +10203,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10253,58 +10280,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10329,23 +10356,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10371,7 +10398,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10402,7 +10429,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10431,7 +10458,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10460,7 +10487,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10489,7 +10516,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10518,7 +10545,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10547,7 +10574,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10578,7 +10605,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10607,7 +10634,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10636,7 +10663,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10665,7 +10692,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12381,6 +12408,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12392,13 +12426,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12410,7 +12437,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12442,41 +12469,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12521,58 +12548,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12597,23 +12624,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12624,13 +12651,13 @@
         <v>44818</v>
       </c>
       <c r="C6" s="61">
-        <v>44820</v>
+        <v>44825</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="38">
-        <v>868183037802308</v>
+        <v>868183033854857</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
@@ -12638,36 +12665,34 @@
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J6" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="66" t="s">
         <v>66</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="66" t="s">
-        <v>67</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="Q6" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="64" t="s">
+      <c r="R6" s="67" t="s">
         <v>70</v>
-      </c>
-      <c r="R6" s="67" t="s">
-        <v>71</v>
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12698,7 +12723,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12727,7 +12752,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12756,7 +12781,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12785,7 +12810,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12814,7 +12839,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12843,7 +12868,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12874,7 +12899,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12903,7 +12928,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12932,7 +12957,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12961,7 +12986,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14677,6 +14702,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14688,13 +14720,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14706,7 +14731,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+      <selection activeCell="M6" sqref="M6:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14738,41 +14763,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14817,58 +14842,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14893,23 +14918,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14919,7 +14944,9 @@
       <c r="B6" s="61">
         <v>44818</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44825</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -14930,20 +14957,40 @@
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="66"/>
+      <c r="H6" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>77</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14958,7 +15005,9 @@
       <c r="B7" s="61">
         <v>44818</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44825</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>64</v>
       </c>
@@ -14970,19 +15019,37 @@
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="I7" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14995,7 +15062,9 @@
       <c r="B8" s="61">
         <v>44818</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44825</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>64</v>
       </c>
@@ -15007,19 +15076,35 @@
         <v>65</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
+      <c r="I8" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>74</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15048,7 +15133,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15077,7 +15162,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15106,7 +15191,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15135,7 +15220,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15166,7 +15251,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15195,7 +15280,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15224,7 +15309,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15253,7 +15338,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15371,7 +15456,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -15403,7 +15488,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -15584,7 +15669,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -15616,7 +15701,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -15872,7 +15957,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -15904,7 +15989,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -16022,7 +16107,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -16969,6 +17054,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16980,13 +17072,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17030,39 +17115,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17107,58 +17192,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17183,23 +17268,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17225,7 +17310,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17256,7 +17341,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17285,7 +17370,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17314,7 +17399,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17343,7 +17428,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17372,7 +17457,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17401,7 +17486,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17432,7 +17517,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17461,7 +17546,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17490,7 +17575,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17519,7 +17604,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19235,6 +19320,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19246,13 +19338,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19296,39 +19381,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19373,58 +19458,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19449,23 +19534,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19491,7 +19576,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19522,7 +19607,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19551,7 +19636,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19580,7 +19665,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19609,7 +19694,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19638,7 +19723,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19667,7 +19752,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19698,7 +19783,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19727,7 +19812,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19756,7 +19841,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19785,7 +19870,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21016,13 +21101,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21034,6 +21112,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
